--- a/data/income_statement/2digits/total/78_IS_TOTAL.xlsx
+++ b/data/income_statement/2digits/total/78_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>78-Employment activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>78-Employment activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>1311932.36996</v>
@@ -959,34 +865,39 @@
         <v>2156660.29189</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>2425149.31194</v>
+        <v>2428803.95779</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>2692159.06953</v>
+        <v>2741556.60235</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>3404017.0185</v>
+        <v>3457158.606399999</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>4596506.565380001</v>
+        <v>4696648.06934</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>5456748.468779999</v>
+        <v>5475654.61161</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>7009575.03281</v>
+        <v>7009575.032810001</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>17897969.07973</v>
+        <v>18187388.93305</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>25345517.87682</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>25766559.61551</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>31304724.136</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>1191509.22938</v>
@@ -998,37 +909,42 @@
         <v>1844319.84298</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>2240920.90783</v>
+        <v>2244575.55368</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>2636233.50065</v>
+        <v>2685631.03347</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>3280118.68117</v>
+        <v>3333227.39403</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>4351417.39796</v>
+        <v>4450485.93867</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>5287097.85176</v>
+        <v>5305805.45925</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>6791984.911959999</v>
+        <v>6791984.91196</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>17338710.80671</v>
+        <v>17617850.29213</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>24688837.44615</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>25090928.3652</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>30674476.769</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>90737.08449999998</v>
+        <v>90737.0845</v>
       </c>
       <c r="D7" s="48" t="n">
         <v>163900.50878</v>
@@ -1043,28 +959,33 @@
         <v>21723.93362</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>60565.64457</v>
+        <v>60565.64456999999</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>153889.21697</v>
+        <v>153979.12098</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>62056.96436</v>
+        <v>62040.57820999999</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>88379.35556</v>
+        <v>88379.35555999998</v>
       </c>
       <c r="L7" s="48" t="n">
         <v>162852.4966</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>166757.33166</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>169062.23809</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>156190.357</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>29686.05608</v>
@@ -1082,49 +1003,54 @@
         <v>34201.63526</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>63332.69276000001</v>
+        <v>63365.5678</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>91199.95045</v>
+        <v>92183.00968999999</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>107593.65266</v>
+        <v>107808.57415</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>129210.76529</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>396405.77642</v>
+        <v>406686.14432</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>489923.0990100001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>506569.01222</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>474057.01</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>4387.795220000001</v>
+        <v>4387.79522</v>
       </c>
       <c r="D9" s="47" t="n">
         <v>3786.11321</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>4024.45263</v>
+        <v>4024.452629999999</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>4956.36341</v>
+        <v>4956.363409999999</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>8208.027110000001</v>
+        <v>8334.13327</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>9727.080480000001</v>
+        <v>9734.228210000001</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>9664.559959999999</v>
+        <v>9679.069360000001</v>
       </c>
       <c r="J9" s="47" t="n">
         <v>21062.95769</v>
@@ -1133,16 +1059,21 @@
         <v>36482.04094</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>56857.37446</v>
+        <v>56893.27843999999</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>56301.37002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>57207.65426</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>127857.621</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>4003.35716</v>
@@ -1157,13 +1088,13 @@
         <v>4800.89997</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>7632.967070000001</v>
+        <v>7759.073230000001</v>
       </c>
       <c r="H10" s="48" t="n">
         <v>8569.402059999999</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>8538.24568</v>
+        <v>8552.755080000001</v>
       </c>
       <c r="J10" s="48" t="n">
         <v>17123.01318</v>
@@ -1172,16 +1103,21 @@
         <v>28539.32227</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>47882.82099000001</v>
+        <v>47913.63397</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>39997.53429</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>40040.60122</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>105281.294</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>134.74172</v>
@@ -1199,7 +1135,7 @@
         <v>77.14434</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>101.01626</v>
+        <v>108.16399</v>
       </c>
       <c r="I11" s="48" t="n">
         <v>160.0639</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>11525.12804</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>18777.305</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>249.69634</v>
@@ -1241,25 +1182,30 @@
         <v>1056.66216</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>966.25038</v>
+        <v>966.2503799999998</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>2967.58595</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>2993.578059999999</v>
+        <v>2993.57806</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>2743.6339</v>
+        <v>2748.7249</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>4778.707689999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>5641.925000000001</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>3799.022</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>1307544.57474</v>
@@ -1271,34 +1217,39 @@
         <v>2152635.83926</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>2420192.94853</v>
+        <v>2423847.59438</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>2683951.04242</v>
+        <v>2733222.46908</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>3394289.93802</v>
+        <v>3447424.378190001</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>4586842.00542</v>
+        <v>4686968.99998</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>5435685.511089999</v>
+        <v>5454591.653919999</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>6973092.99187</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>17841111.70527</v>
+        <v>18130495.65461</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>25289216.5068</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>25709351.96125</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>31176866.515</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>1227744.29942</v>
@@ -1310,34 +1261,39 @@
         <v>2022765.50051</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>2298542.72843</v>
+        <v>2302246.70424</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>2574790.77587</v>
+        <v>2622588.52343</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>3262323.49999</v>
+        <v>3313218.05776</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>4319897.41726</v>
+        <v>4414650.27015</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>5098872.21757</v>
+        <v>5117560.483420001</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>6627767.26168</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>16429368.01057</v>
+        <v>16643586.8005</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>23354055.24407</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>23659663.03727</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>28741520.025</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>110428.79313</v>
@@ -1352,31 +1308,36 @@
         <v>25088.68699</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>25416.15735</v>
+        <v>28908.02907</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>25880.71363</v>
+        <v>27188.92264</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>35299.42689</v>
+        <v>36911.1692</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>78496.96876</v>
+        <v>78496.96875999999</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>74267.30103999999</v>
+        <v>74267.30104000001</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>138609.65038</v>
+        <v>140798.70857</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>137443.02927</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>138590.24254</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>229084.408</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>102503.70494</v>
@@ -1391,31 +1352,36 @@
         <v>174157.33428</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>93252.63815</v>
+        <v>119661.41377</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>102180.85079</v>
+        <v>130960.65282</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>144999.83359</v>
+        <v>186933.13865</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>295015.5833699999</v>
+        <v>295087.05888</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>730522.19392</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>586081.1319699999</v>
+        <v>590117.54847</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>729270.2656800001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>737472.6674500001</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>696015.755</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>1013277.64026</v>
@@ -1427,34 +1393,39 @@
         <v>1700696.92884</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>2075261.79696</v>
+        <v>2078965.77277</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>2455968.04707</v>
+        <v>2473865.14729</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>3133244.479629999</v>
+        <v>3154051.02636</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>4138497.70756</v>
+        <v>4189705.51308</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>4715913.438429999</v>
+        <v>4734531.82538</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>5821187.924960001</v>
+        <v>5821187.92496</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>15686606.06206</v>
+        <v>15894599.3773</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>22476171.07688</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>22772406.88145</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>27741463.372</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>1534.16109</v>
@@ -1478,7 +1449,7 @@
         <v>1100.44922</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>9446.227010000001</v>
+        <v>9444.630399999998</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>1789.84176</v>
@@ -1487,13 +1458,18 @@
         <v>18071.16616</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>11170.87224</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>11193.24583</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>74956.49000000001</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>79800.27531999999</v>
@@ -1505,34 +1481,39 @@
         <v>129870.33875</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>121650.2201</v>
+        <v>121600.89014</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>109160.26655</v>
+        <v>110633.94565</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>131966.43803</v>
+        <v>134206.32043</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>266944.58816</v>
+        <v>272318.72983</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>336813.29352</v>
+        <v>337031.1704999999</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>345325.73019</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1411743.6947</v>
+        <v>1486908.85411</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1935161.26273</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>2049688.92398</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>2435346.49</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>132873.66136</v>
@@ -1544,34 +1525,39 @@
         <v>171323.6271</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>203474.67829</v>
+        <v>203548.97322</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>215239.31612</v>
+        <v>215893.45098</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>285804.54438</v>
+        <v>287184.94915</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>333558.3077899999</v>
+        <v>337724.6844699999</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>378007.9498400001</v>
+        <v>378472.2849799999</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>473702.32747</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1223661.05703</v>
+        <v>1295850.34827</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1578346.84523</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1657920.31309</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>2048838.055</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>58.55249</v>
@@ -1592,7 +1578,7 @@
         <v>47.97916</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>0</v>
+        <v>0.01134</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>206.37764</v>
@@ -1604,19 +1590,24 @@
         <v>6256.56819</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>7991.891180000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>7997.14623</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>19630.286</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>24160.14116</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>27428.93855</v>
+        <v>27428.93855000001</v>
       </c>
       <c r="E22" s="48" t="n">
         <v>21537.34896</v>
@@ -1628,28 +1619,33 @@
         <v>22299.76601</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>30850.37869</v>
+        <v>30865.81653</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>59611.44886</v>
+        <v>59753.88572999999</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>64763.76677</v>
+        <v>64797.83549</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>90636.56373999998</v>
+        <v>90636.56374000001</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>145351.60619</v>
+        <v>163581.63813</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>158831.68667</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>159370.24432</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>162693.655</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>108654.96771</v>
@@ -1661,34 +1657,39 @@
         <v>149762.39194</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>182039.08352</v>
+        <v>182113.37845</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>192933.64696</v>
+        <v>193587.78182</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>254906.18653</v>
+        <v>256271.15346</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>273946.8589299999</v>
+        <v>277970.7874</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>313037.8054299999</v>
+        <v>313468.07185</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>382663.06663</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1072052.88265</v>
+        <v>1126012.14195</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1411523.26738</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1490552.92254</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1866514.114</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>-53073.38604</v>
@@ -1700,34 +1701,39 @@
         <v>-41453.28835</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>-81824.45819</v>
+        <v>-81948.08308000001</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-106079.04957</v>
+        <v>-105259.50533</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-153838.10635</v>
+        <v>-152978.62872</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-66613.71963000001</v>
+        <v>-65405.95464</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-41194.65632000001</v>
+        <v>-41441.11448</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>-128376.59728</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>188082.63767</v>
+        <v>191058.50584</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>356814.4175</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>391768.6108900001</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>386508.435</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>16269.10706</v>
@@ -1739,34 +1745,39 @@
         <v>42026.97822</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>20652.02956</v>
+        <v>20663.58113</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>29952.79364</v>
+        <v>30091.36882</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>83186.22764</v>
+        <v>83275.07066</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>52022.51188000001</v>
+        <v>53035.13456000001</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>64836.0784</v>
+        <v>66332.51156</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>74033.69053000001</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>387922.8468</v>
+        <v>388644.3974</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>183403.84687</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>184713.38379</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>192505.214</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>346.741</v>
@@ -1790,10 +1801,10 @@
         <v>940.9596799999999</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>718.2347199999999</v>
+        <v>732.6521499999999</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>897.9121600000002</v>
+        <v>897.9121600000001</v>
       </c>
       <c r="L26" s="48" t="n">
         <v>14677.06392</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>336.19557</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>182.904</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>299.00883</v>
@@ -1829,7 +1845,7 @@
         <v>641.9111</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>13430.76939</v>
+        <v>13472.23666</v>
       </c>
       <c r="K27" s="48" t="n">
         <v>267.13118</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>12502.02139</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>8124.714</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>3936.68512</v>
@@ -1853,37 +1874,42 @@
         <v>3012.87742</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>4456.66136</v>
+        <v>4456.661359999999</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>8467.779550000001</v>
+        <v>8479.331120000001</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>9102.63305</v>
+        <v>9138.633890000001</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>11594.90251</v>
+        <v>11639.28449</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>14995.56383</v>
+        <v>15615.10924</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>14949.46264</v>
+        <v>14948.92274</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>21281.821</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>50155.894</v>
+        <v>50176.69667999999</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>61715.30708</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>61984.39387000001</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>53823.582</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>934.19056</v>
@@ -1913,22 +1939,27 @@
         <v>26.25255</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>290.00292</v>
+        <v>292.22682</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>376.1276</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>378.13377</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>786.2</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>1013.99655</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>3155.871360000001</v>
+        <v>3155.87136</v>
       </c>
       <c r="E30" s="48" t="n">
         <v>2490.82461</v>
@@ -1937,13 +1968,13 @@
         <v>855.3202700000001</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>1246.71604</v>
+        <v>1295.35257</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>997.24829</v>
+        <v>1008.00536</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>1533.40577</v>
+        <v>1685.8839</v>
       </c>
       <c r="J30" s="48" t="n">
         <v>662.3682700000001</v>
@@ -1957,14 +1988,19 @@
       <c r="M30" s="48" t="n">
         <v>12960.55558</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>6753.357</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>577.7414399999999</v>
+        <v>577.74144</v>
       </c>
       <c r="D31" s="48" t="n">
         <v>277.97701</v>
@@ -1982,10 +2018,10 @@
         <v>1057.37402</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>1568.98929</v>
+        <v>1568.99037</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>2416.217889999999</v>
+        <v>2416.21789</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>2027.44366</v>
@@ -1996,14 +2032,19 @@
       <c r="M31" s="48" t="n">
         <v>5679.46297</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>4601.435</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>6418.412609999998</v>
+        <v>6418.412609999999</v>
       </c>
       <c r="D32" s="48" t="n">
         <v>9642.52735</v>
@@ -2024,7 +2065,7 @@
         <v>17757.45772</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>14836.45427</v>
+        <v>14834.66682</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>24170.61814</v>
@@ -2033,13 +2074,18 @@
         <v>239765.56927</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>37226.69684</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>37360.75393</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>56637.936</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0.37808</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>29.25703</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>315.745</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0.00018</v>
@@ -2108,22 +2159,27 @@
         <v>0</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>10.18199</v>
+        <v>153.35334</v>
       </c>
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>2741.95269</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>5197.436229999999</v>
+        <v>5197.43623</v>
       </c>
       <c r="E35" s="48" t="n">
         <v>4015.29458</v>
@@ -2132,31 +2188,36 @@
         <v>5641.56355</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>11498.85289</v>
+        <v>11552.7907</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>51021.98906</v>
+        <v>51055.69303</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>14366.17504</v>
+        <v>14606.7731</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>17820.98181</v>
+        <v>19263.85762</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>24674.81565</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>62913.52568000001</v>
+        <v>63468.87834999999</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>52578.22281000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>53482.60968</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>61279.341</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>11557.66699</v>
@@ -2165,43 +2226,48 @@
         <v>13327.28479</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>63662.87832</v>
+        <v>63662.87832000001</v>
       </c>
       <c r="F36" s="47" t="n">
         <v>16358.4476</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>9713.596200000002</v>
+        <v>9814.799120000001</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>69838.0822</v>
+        <v>70021.29833000001</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>31865.58997</v>
+        <v>31878.89082</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>33342.35794</v>
+        <v>34420.83124</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>55990.54013</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>282788.2449400001</v>
+        <v>283324.4653000001</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>120362.12091</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>121459.09814</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>139531.837</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>426.27306</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>60.29129</v>
+        <v>60.29129000000001</v>
       </c>
       <c r="E37" s="48" t="n">
         <v>42.69352000000001</v>
@@ -2216,25 +2282,30 @@
         <v>113.51493</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>70.28825999999999</v>
+        <v>70.29526</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>100.27896</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>688.0172199999998</v>
+        <v>688.01722</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>932.02472</v>
+        <v>933.52692</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>1505.37968</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>1505.78085</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>467.797</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>2732.93892</v>
@@ -2249,10 +2320,10 @@
         <v>4972.79363</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>2546.4919</v>
+        <v>2646.89615</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>3404.27232</v>
+        <v>3558.75154</v>
       </c>
       <c r="I38" s="48" t="n">
         <v>2892.97868</v>
@@ -2261,19 +2332,24 @@
         <v>2935.77119</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>8292.81769</v>
+        <v>8292.817690000002</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>9628.094600000002</v>
+        <v>10162.77789</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>43042.0079</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>44045.96516</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>21722.783</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>2.15503</v>
@@ -2300,7 +2376,7 @@
         <v>23.78501</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>49.25296999999999</v>
+        <v>49.25297</v>
       </c>
       <c r="L39" s="48" t="n">
         <v>13.77257</v>
@@ -2308,17 +2384,22 @@
       <c r="M39" s="48" t="n">
         <v>6.610219999999999</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>4745.431</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>5504.83635</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>9013.816280000001</v>
+        <v>9013.816279999999</v>
       </c>
       <c r="E40" s="48" t="n">
         <v>22229.33623</v>
@@ -2339,19 +2420,24 @@
         <v>15662.21726</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>29753.03061</v>
+        <v>29753.03060999999</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>244489.0391800001</v>
+        <v>244489.03918</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>41684.75672</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>41775.89741999999</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>71195.151</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>10.21414</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>84.05722</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>56.999</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0.10299</v>
@@ -2425,17 +2516,22 @@
       <c r="M42" s="48" t="n">
         <v>2.92312</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>2881.1465</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>3074.60615</v>
+        <v>3074.606150000001</v>
       </c>
       <c r="E43" s="48" t="n">
         <v>38869.73512</v>
@@ -2444,70 +2540,80 @@
         <v>4964.511519999999</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>4444.71268</v>
+        <v>4445.51135</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>52099.69485</v>
+        <v>52128.43176</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>10925.89232</v>
+        <v>10939.18617</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>14417.48316</v>
+        <v>15495.95646</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>17204.0243</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>27479.70415</v>
+        <v>27479.73902</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>34036.38604999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>34037.86414999999</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>41343.676</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>24955.79348</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>6532.980579999999</v>
+        <v>6532.98058</v>
       </c>
       <c r="E44" s="47" t="n">
         <v>9379.722649999998</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>9336.404199999999</v>
+        <v>10905.65429</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>9629.392</v>
+        <v>9714.4781</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>17100.43882</v>
+        <v>17329.55756</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>31031.86958</v>
+        <v>31666.64202</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>34989.4281</v>
+        <v>35088.79238000001</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>39384.50238000001</v>
+        <v>39384.50238</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>74242.9109</v>
+        <v>74257.44270999999</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>83652.66111000002</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>83862.17157000002</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>89582.66099999999</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>21856.25998</v>
@@ -2519,34 +2625,39 @@
         <v>8380.819589999999</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>9180.53602</v>
+        <v>10749.78611</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>9547.00014</v>
+        <v>9632.086239999999</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>17035.30519</v>
+        <v>17264.42393</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>30597.47313</v>
+        <v>31232.24557</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>34965.28979</v>
+        <v>35064.65407</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>38903.62154000001</v>
+        <v>38903.62154</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>72875.48784999999</v>
+        <v>72890.01965999999</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>81947.91925000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>82157.42971000001</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>87561.27899999999</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>3099.5335</v>
@@ -2581,50 +2692,60 @@
       <c r="M46" s="48" t="n">
         <v>1704.74186</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>2021.382</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>-73317.73945000001</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>-38806.09372999999</v>
+        <v>-38806.09373000001</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-72468.91110000003</v>
+        <v>-72468.91110000001</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-86867.28042999998</v>
+        <v>-88548.60383999997</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-95469.24412999999</v>
+        <v>-94697.41373</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-157590.39973</v>
+        <v>-157054.41395</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-77488.6673</v>
+        <v>-75916.35292000002</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-44690.36396</v>
+        <v>-44618.22654000001</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>-149717.94926</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>218974.32863</v>
+        <v>222120.99523</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>336203.4823500001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>371160.72497</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>349899.151</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>10727.45076</v>
@@ -2636,34 +2757,39 @@
         <v>13210.7517</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>14367.80965</v>
+        <v>16306.55062</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>22329.93078</v>
+        <v>22479.92981</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>13496.00053</v>
+        <v>13708.12398</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>16483.81508</v>
+        <v>17024.26335</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>29293.52793</v>
+        <v>29327.98730999999</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>48679.78958</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>163706.86099</v>
+        <v>164382.43355</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>191365.89159</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>192070.12165</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>197226.749</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>1116.82145</v>
@@ -2698,11 +2824,16 @@
       <c r="M49" s="48" t="n">
         <v>3369.20028</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>3084.552</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>9610.62931</v>
@@ -2711,40 +2842,45 @@
         <v>13094.92129</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>9983.190899999998</v>
+        <v>9983.1909</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>14241.43913</v>
+        <v>16180.1801</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>21878.60197</v>
+        <v>22028.601</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>13484.63722</v>
+        <v>13696.76067</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>16398.4808</v>
+        <v>16938.92907</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>28841.95843</v>
+        <v>28876.41781</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>48412.31116</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>161876.48668</v>
+        <v>162552.05924</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>187996.69131</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>188700.92137</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>194142.197</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>2883.808470000001</v>
+        <v>2883.80847</v>
       </c>
       <c r="D51" s="47" t="n">
         <v>3953.16619</v>
@@ -2753,34 +2889,39 @@
         <v>38786.36798</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>7574.94936</v>
+        <v>7597.39492</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>7214.18498</v>
+        <v>8630.085519999999</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>37299.12758</v>
+        <v>38506.33764</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>49943.07006</v>
+        <v>50100.44537</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>65554.60429999999</v>
+        <v>65567.65783</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>43227.38191</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>187208.95491</v>
+        <v>187276.88097</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>240026.73596</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>240916.73014</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>241563.276</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>50.19247</v>
@@ -2815,32 +2956,37 @@
       <c r="M52" s="48" t="n">
         <v>376.19539</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>337.113</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>694.01914</v>
+        <v>694.0191399999999</v>
       </c>
       <c r="D53" s="48" t="n">
         <v>1083.42036</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>641.29237</v>
+        <v>641.2923700000001</v>
       </c>
       <c r="F53" s="48" t="n">
         <v>1612.47314</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>847.26076</v>
+        <v>924.3880000000001</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>958.48272</v>
+        <v>1005.03741</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>1994.41807</v>
+        <v>2056.44267</v>
       </c>
       <c r="J53" s="48" t="n">
         <v>3932.73509</v>
@@ -2852,16 +2998,21 @@
         <v>9390.896189999999</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>9174.165199999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>9178.826519999999</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>25837.992</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>2139.59686</v>
+        <v>2139.596860000001</v>
       </c>
       <c r="D54" s="48" t="n">
         <v>2785.77648</v>
@@ -2870,148 +3021,166 @@
         <v>38088.84092</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>5962.32723</v>
+        <v>5984.77279</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>6366.92422</v>
+        <v>7705.697520000001</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>35969.08287999999</v>
+        <v>37129.73825</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>47419.14803</v>
+        <v>47514.49874</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>61070.21382</v>
+        <v>61083.26735</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>39913.60123</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>177412.01721</v>
+        <v>177479.94327</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>230476.37537</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>231361.70823</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>215388.171</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>-65474.09716</v>
+        <v>-65474.09715999999</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>-29660.78043</v>
+        <v>-29660.78042999999</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-98044.52738</v>
+        <v>-98044.52738000001</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-80074.42013999999</v>
+        <v>-79839.44814000001</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-80353.49833000002</v>
+        <v>-80847.56944000001</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-181393.52678</v>
+        <v>-181852.62761</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-110947.92228</v>
+        <v>-108992.53494</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-80951.44033</v>
+        <v>-80857.89705999999</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>-144265.54159</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>195472.23471</v>
+        <v>199226.54781</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>287542.6379799999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>322314.1164800001</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>305562.624</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>6547.217880000001</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>7271.686189999999</v>
+        <v>7271.68619</v>
       </c>
       <c r="E56" s="47" t="n">
         <v>13602.55959</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>12985.83025</v>
+        <v>12997.80488</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>13938.15288</v>
+        <v>14098.14922</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>15137.5571</v>
+        <v>15309.39127</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>18756.59769999999</v>
+        <v>19019.60172</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>23972.9487</v>
+        <v>24033.0228</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>28443.42346</v>
+        <v>28443.42346000001</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>148712.44686</v>
+        <v>150300.59101</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>278183.92057</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>283577.8832999999</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>279958.053</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-72021.31504</v>
+        <v>-72021.31503999999</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-36932.46662000001</v>
+        <v>-36932.46662</v>
       </c>
       <c r="E57" s="47" t="n">
         <v>-111647.08697</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-93060.25039</v>
+        <v>-92837.25301999999</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-94291.65121000001</v>
+        <v>-94945.71866</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-196531.08388</v>
+        <v>-197162.01888</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-129704.51998</v>
+        <v>-128012.13666</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-104924.38903</v>
+        <v>-104890.91986</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>-172708.96505</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>46759.78785</v>
+        <v>48925.9568</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>9358.717410000001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>38736.23317999999</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>25604.571</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>557</v>
@@ -3041,31 +3213,34 @@
         <v>622</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>953</v>
+        <v>973</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1024</v>
+        <v>1032</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>1278</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>2109</v>
+        <v>2302</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>2102</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>2346</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>